--- a/Sample Parts-List Processed.xlsx
+++ b/Sample Parts-List Processed.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\borisch.local\network\home\phils\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phils\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F1E660-648A-47E7-8EA1-812BDABAB1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E3A43-2988-49D2-8281-305703026CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="2052" windowWidth="11520" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PartsListProcessedWithDesignato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PartsListProcessedWithDesignators">PartsListProcessedWithDesignato!$A$1:$C$36</definedName>
+    <definedName name="PartsListProcessedWithDesignators">PartsListProcessedWithDesignato!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>PartNumber</t>
   </si>
@@ -34,24 +34,6 @@
     <t>PartDescription</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>PC BATTERY HOLDER, 1/2AA, FOR ONE CELL, THROUGH HOLE MOUNT, T.R: -50C TO 145C</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>PC BOARD STACKING CONNECTOR, STRAIGHT, 4-ROWS/0.50MM PITCH, 440-POS.PIN CONTACTS, H: 8.0MM, SMT</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -124,6 +106,9 @@
     <t>R12</t>
   </si>
   <si>
+    <t>R13</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -148,15 +133,12 @@
     <t>19</t>
   </si>
   <si>
-    <t>R13</t>
+    <t>R14</t>
   </si>
   <si>
     <t>RESISTOR CHIP, THICK FILM,   2210 OHM, TOL: 1%  0.063W/70C, T.C.:100PPM/C,SIZE: 1.0X0.5X0.35MM</t>
   </si>
   <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
@@ -173,78 +155,6 @@
   </si>
   <si>
     <t>R23</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>MULTILAYER CERAMIC CAPACITOR CHIP,CHAR:X5R,4.7UF, TOL:+-20%,10VDC,SIZE:1.0X0.5X0.5MM</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CAPACITOR CHIP, CHAR: NPO, 120 PFD, TOL: 5%, 50VDCW, SIZE:0.040X0.030X0.030", NI BARRIER TER.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CAPACITOR CHIP, CHAR:X7R, 0.22UFD, TOL: 10%,  50VDCW, SIZE: 2.0X1.25X1.25MM</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>CAPACITOR CHIP, CHAR: X7R, 1.0UFD, TOL: 10%,  25VDC, SIZE: 2.0X1.25X1.30MM, NI BARRIER TER.</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>CAPACITOR CHIP, CHAR: NPO, 820PFD, TOL: 5%, 50VDCW, SIZE:0.040X0.030X0.030", NI BARRIER TER.</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>SOLID TANTALUM CAP.CHIP, 16VDC, 47.0UFD, TOL: 10%, SIZE: 0.236X0.126X0.102", 350 MOHM ESR</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>LOW PROFILE SOCKET PCB, RECEPTACLE, 34-CON, 2-ROWS T.R:-65C TO 125C, CONT.MATERIAL: PHOSPHOR BRONZE</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>PC BOARD STACKING CONNECTOR, STRAIGHT, 5-ROWS/0.050"GRID, 200-PIN CONTACTS, SMT</t>
   </si>
 </sst>
 </file>
@@ -620,17 +530,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -657,376 +568,266 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
